--- a/src/excel_template/cdQC_trend/NFT Dynamic Trend.xlsx
+++ b/src/excel_template/cdQC_trend/NFT Dynamic Trend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="500" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="5640" yWindow="500" windowWidth="20740" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -323,6 +323,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -535,6 +536,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -568,6 +570,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -643,6 +646,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -844,6 +848,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -878,6 +883,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -947,6 +953,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1148,6 +1155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1182,6 +1190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1251,6 +1260,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1452,6 +1462,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1486,6 +1497,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1555,6 +1567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2711,6 +2724,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -2745,6 +2759,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2814,6 +2829,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3973,6 +3989,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -4007,6 +4024,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4076,6 +4094,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4280,6 +4299,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -4314,6 +4334,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4383,6 +4404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4586,6 +4608,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -4620,6 +4643,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4685,6 +4709,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4840,6 +4865,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4873,6 +4899,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4939,6 +4966,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5094,6 +5122,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -5127,6 +5156,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5446,6 +5476,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5657,6 +5688,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_ " sourceLinked="0"/>
@@ -5691,6 +5723,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5757,6 +5790,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5911,6 +5945,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -5944,6 +5979,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6516,6 +6552,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6677,6 +6714,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -6714,6 +6752,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6780,6 +6819,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6941,6 +6981,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -6978,6 +7019,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7044,6 +7086,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7203,6 +7246,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -7240,6 +7284,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7306,6 +7351,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7465,6 +7511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -7502,6 +7549,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8413,6 +8461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8614,6 +8663,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -8648,6 +8698,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8955,6 +9006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9156,6 +9208,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -9190,6 +9243,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9259,6 +9313,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9468,6 +9523,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -9502,6 +9558,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9571,6 +9628,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9772,6 +9830,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -9806,6 +9865,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9875,6 +9935,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10078,6 +10139,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -10111,6 +10173,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10180,6 +10243,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10381,6 +10445,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -10415,6 +10480,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10489,6 +10555,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10690,6 +10757,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -10724,6 +10792,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13668,7 +13737,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AW6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -21390,9 +21459,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -21407,7 +21474,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="P145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
